--- a/Code/Results/Cases/Case_3_240/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_240/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.563930969372279</v>
+        <v>1.531238913048924</v>
       </c>
       <c r="C2">
-        <v>0.601076730135361</v>
+        <v>0.2923111209445892</v>
       </c>
       <c r="D2">
-        <v>0.07637203157221961</v>
+        <v>0.05423374491933686</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.770457511078689</v>
+        <v>4.845508045540868</v>
       </c>
       <c r="G2">
-        <v>0.0008083860417866051</v>
+        <v>0.002564576935133909</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1699329482397403</v>
+        <v>0.2314661405696157</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.557702828301494</v>
+        <v>0.5003697753631613</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.208553539251739</v>
+        <v>1.460752453487544</v>
       </c>
       <c r="C3">
-        <v>0.5136214265058925</v>
+        <v>0.2756330872252875</v>
       </c>
       <c r="D3">
-        <v>0.06520763619988657</v>
+        <v>0.05186890427511059</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>6.039452934533386</v>
+        <v>4.659147865040865</v>
       </c>
       <c r="G3">
-        <v>0.0008200128841644768</v>
+        <v>0.002571257130335096</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.157000057597088</v>
+        <v>0.2290218502733552</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4845673994816835</v>
+        <v>0.4894542456953488</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.996550430763818</v>
+        <v>1.418927386970267</v>
       </c>
       <c r="C4">
-        <v>0.461545913502647</v>
+        <v>0.2657263352744792</v>
       </c>
       <c r="D4">
-        <v>0.05854754191406641</v>
+        <v>0.05043720563763543</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.603096295260343</v>
+        <v>4.546096390128184</v>
       </c>
       <c r="G4">
-        <v>0.000827292211239132</v>
+        <v>0.002575568007025162</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1493451686943743</v>
+        <v>0.227594385278465</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4411496449734358</v>
+        <v>0.4832266224057946</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.911502164815886</v>
+        <v>1.402246489376921</v>
       </c>
       <c r="C5">
-        <v>0.4406728685400765</v>
+        <v>0.2617723774270644</v>
       </c>
       <c r="D5">
-        <v>0.05587456600342477</v>
+        <v>0.04985870104599144</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.427977259922784</v>
+        <v>4.500364531567527</v>
       </c>
       <c r="G5">
-        <v>0.0008302974942086898</v>
+        <v>0.002577377537643575</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1462893147914457</v>
+        <v>0.2270310043539823</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4237836725272999</v>
+        <v>0.4808077124416741</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.897455367823028</v>
+        <v>1.399498502753232</v>
       </c>
       <c r="C6">
-        <v>0.4372263244837313</v>
+        <v>0.261120824081388</v>
       </c>
       <c r="D6">
-        <v>0.05543298472582592</v>
+        <v>0.04976293278848942</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.399049987106423</v>
+        <v>4.49279094311882</v>
       </c>
       <c r="G6">
-        <v>0.0008307989664189801</v>
+        <v>0.00257768120465452</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1457855056080888</v>
+        <v>0.2269385585848909</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4209185490582783</v>
+        <v>0.4804132230009444</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.99539826127608</v>
+        <v>1.418700955312659</v>
       </c>
       <c r="C7">
-        <v>0.4612630766997938</v>
+        <v>0.2656726752521763</v>
       </c>
       <c r="D7">
-        <v>0.05851133682096332</v>
+        <v>0.05042938402936414</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.600724193482108</v>
+        <v>4.545478278234725</v>
       </c>
       <c r="G7">
-        <v>0.0008273325795806532</v>
+        <v>0.002575592196911746</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1493037093289615</v>
+        <v>0.2275867132940377</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4409141751730203</v>
+        <v>0.4831935192887471</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.439973022840604</v>
+        <v>1.506631909905877</v>
       </c>
       <c r="C8">
-        <v>0.5705471014964303</v>
+        <v>0.2864908157531261</v>
       </c>
       <c r="D8">
-        <v>0.07247703453246146</v>
+        <v>0.05341401680580304</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.515536307901186</v>
+        <v>4.780960851947469</v>
       </c>
       <c r="G8">
-        <v>0.0008123681260328031</v>
+        <v>0.002566836969119525</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1654090259855678</v>
+        <v>0.230608054482957</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5321469270282009</v>
+        <v>0.4965073353848197</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.372160811601361</v>
+        <v>1.690724654860333</v>
       </c>
       <c r="C9">
-        <v>0.8008634873250173</v>
+        <v>0.3300004243485546</v>
       </c>
       <c r="D9">
-        <v>0.1018222391141705</v>
+        <v>0.05943681045265237</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.431297693812922</v>
+        <v>5.254037188587375</v>
       </c>
       <c r="G9">
-        <v>0.0007839509298816288</v>
+        <v>0.002551318568239354</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1996923708344269</v>
+        <v>0.2371206965491623</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7253113349075591</v>
+        <v>0.5264037582998</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.11232289586269</v>
+        <v>1.833279031059362</v>
       </c>
       <c r="C10">
-        <v>0.9850565642365439</v>
+        <v>0.3636616835578366</v>
       </c>
       <c r="D10">
-        <v>0.1252539897948566</v>
+        <v>0.06397779582782448</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>9.950431154188834</v>
+        <v>5.609070592074772</v>
       </c>
       <c r="G10">
-        <v>0.0007633340063814684</v>
+        <v>0.00254091020905592</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2272352775614905</v>
+        <v>0.2422727801936304</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.879976862159026</v>
+        <v>0.5507139058930619</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.466214498451677</v>
+        <v>1.899760247329311</v>
       </c>
       <c r="C11">
-        <v>1.073577538173993</v>
+        <v>0.3793561631404145</v>
       </c>
       <c r="D11">
-        <v>0.1365090674439244</v>
+        <v>0.06607153650551822</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.67612569671485</v>
+        <v>5.77233383201343</v>
       </c>
       <c r="G11">
-        <v>0.000753927221524485</v>
+        <v>0.002536387960333281</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2404729562199748</v>
+        <v>0.2446983468357686</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9542420348759961</v>
+        <v>0.5622908031917859</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.60323358947835</v>
+        <v>1.92517306475861</v>
       </c>
       <c r="C12">
-        <v>1.107933129531744</v>
+        <v>0.3853551785644811</v>
       </c>
       <c r="D12">
-        <v>0.1408763876819137</v>
+        <v>0.06686862834422413</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>10.95697899550652</v>
+        <v>5.834419894059295</v>
       </c>
       <c r="G12">
-        <v>0.0007503523783170134</v>
+        <v>0.002534705849767961</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2456078502609245</v>
+        <v>0.2456287710267375</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9830444552163655</v>
+        <v>0.5667498107430617</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.57358056661019</v>
+        <v>1.919689332688108</v>
       </c>
       <c r="C13">
-        <v>1.100494107026975</v>
+        <v>0.3840606835469771</v>
       </c>
       <c r="D13">
-        <v>0.1399307705479487</v>
+        <v>0.06669676854590989</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10.8962038927628</v>
+        <v>5.821036757350953</v>
       </c>
       <c r="G13">
-        <v>0.0007511230062730328</v>
+        <v>0.002535066774849561</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.244496164437308</v>
+        <v>0.2454278552978408</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9768089637056363</v>
+        <v>0.5657861345498674</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.477423392463606</v>
+        <v>1.901846190861818</v>
       </c>
       <c r="C14">
-        <v>1.076386265606146</v>
+        <v>0.3798485807418785</v>
       </c>
       <c r="D14">
-        <v>0.1368661334548023</v>
+        <v>0.06613702760093076</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.69910356734079</v>
+        <v>5.777436389309742</v>
       </c>
       <c r="G14">
-        <v>0.0007536334272733322</v>
+        <v>0.002536248964610451</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2408928304060964</v>
+        <v>0.2447746537701789</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9565972408277332</v>
+        <v>0.5626561401144272</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.418933854906015</v>
+        <v>1.890947815624656</v>
       </c>
       <c r="C15">
-        <v>1.061733342367489</v>
+        <v>0.3772758490956676</v>
       </c>
       <c r="D15">
-        <v>0.1350033119963285</v>
+        <v>0.06579472819669263</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.57919692619924</v>
+        <v>5.75076427663322</v>
       </c>
       <c r="G15">
-        <v>0.0007551691926783216</v>
+        <v>0.002536977038639102</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2387022496378037</v>
+        <v>0.2443761049442514</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9443094190185022</v>
+        <v>0.5607487245929548</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.089584579292364</v>
+        <v>1.828967437949018</v>
       </c>
       <c r="C16">
-        <v>0.9793791871626638</v>
+        <v>0.3626437761931527</v>
       </c>
       <c r="D16">
-        <v>0.124532021623736</v>
+        <v>0.06384154657409624</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.903788906728522</v>
+        <v>5.598437088680043</v>
       </c>
       <c r="G16">
-        <v>0.0007639474943545833</v>
+        <v>0.002541210009088209</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2263860579064456</v>
+        <v>0.2421159231099566</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8752116370540151</v>
+        <v>0.5499678034071707</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.892291237050415</v>
+        <v>1.791364765589947</v>
       </c>
       <c r="C17">
-        <v>0.9301694718191413</v>
+        <v>0.3537659326930793</v>
       </c>
       <c r="D17">
-        <v>0.1182736055456672</v>
+        <v>0.06265065759259869</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.499016063182665</v>
+        <v>5.505445738596109</v>
       </c>
       <c r="G17">
-        <v>0.0007693198577448877</v>
+        <v>0.002543861100233634</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2190250926755368</v>
+        <v>0.2407504417807189</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.833899928817992</v>
+        <v>0.5434871634688534</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.780393527556043</v>
+        <v>1.769890173959595</v>
       </c>
       <c r="C18">
-        <v>0.9022997365525498</v>
+        <v>0.3486955104662854</v>
       </c>
       <c r="D18">
-        <v>0.1147286429111745</v>
+        <v>0.06196831488536247</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.269386591257955</v>
+        <v>5.45212436975342</v>
       </c>
       <c r="G18">
-        <v>0.0007724078653743013</v>
+        <v>0.002545405957478441</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2148565133893356</v>
+        <v>0.2399727491121126</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8104979974517192</v>
+        <v>0.5398083993611209</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.742763619465961</v>
+        <v>1.762645512940253</v>
       </c>
       <c r="C19">
-        <v>0.8929339250778696</v>
+        <v>0.34698488617164</v>
       </c>
       <c r="D19">
-        <v>0.1135372404579869</v>
+        <v>0.0617377299458326</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.192155750601472</v>
+        <v>5.434098696556475</v>
       </c>
       <c r="G19">
-        <v>0.0007734532999225243</v>
+        <v>0.002545932464063515</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2134557563826576</v>
+        <v>0.2397107532202938</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.80263301951139</v>
+        <v>0.5385711846811603</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.913126354303245</v>
+        <v>1.795351728650928</v>
       </c>
       <c r="C20">
-        <v>0.935361953521948</v>
+        <v>0.3547072741728812</v>
       </c>
       <c r="D20">
-        <v>0.1189340323237502</v>
+        <v>0.06277715656759142</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.541768081232476</v>
+        <v>5.515327704641777</v>
       </c>
       <c r="G20">
-        <v>0.000768748228422905</v>
+        <v>0.002543576816664795</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2198017922522695</v>
+        <v>0.2408950020539322</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8382596459621041</v>
+        <v>0.5441719912477438</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.505580627909808</v>
+        <v>1.90708067474975</v>
       </c>
       <c r="C21">
-        <v>1.083443278954434</v>
+        <v>0.3810842537725136</v>
       </c>
       <c r="D21">
-        <v>0.1377632589040729</v>
+        <v>0.06630132040594106</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.75682298358959</v>
+        <v>5.790235694641751</v>
       </c>
       <c r="G21">
-        <v>0.00075289647817688</v>
+        <v>0.002535900904272725</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2419477228542704</v>
+        <v>0.2449661903696025</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9625144033109123</v>
+        <v>0.5635734527024994</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.910650759438681</v>
+        <v>1.981489708886841</v>
       </c>
       <c r="C22">
-        <v>1.185184782801343</v>
+        <v>0.3986491717324725</v>
       </c>
       <c r="D22">
-        <v>0.1506949911624815</v>
+        <v>0.0686293639955835</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.58684744773109</v>
+        <v>5.971434399163229</v>
       </c>
       <c r="G22">
-        <v>0.0007424570660056165</v>
+        <v>0.002531061161089522</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2571453840540272</v>
+        <v>0.2476964645015727</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.047758024484331</v>
+        <v>0.5766913866328593</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.692615001475588</v>
+        <v>1.941648193109984</v>
       </c>
       <c r="C23">
-        <v>1.130369435110651</v>
+        <v>0.3892442899132789</v>
       </c>
       <c r="D23">
-        <v>0.1437282638109849</v>
+        <v>0.06738450486254521</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.14015010656465</v>
+        <v>5.87458212743519</v>
       </c>
       <c r="G23">
-        <v>0.0007480393784731622</v>
+        <v>0.002533628101875833</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2489600778125407</v>
+        <v>0.2462328566806562</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.001846983154046</v>
+        <v>0.5696498255602762</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.903702074764624</v>
+        <v>1.793548775332965</v>
       </c>
       <c r="C24">
-        <v>0.9330131306141425</v>
+        <v>0.3542815892044757</v>
       </c>
       <c r="D24">
-        <v>0.1186352894577709</v>
+        <v>0.06271995918521611</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.522430378727677</v>
+        <v>5.510859630557491</v>
       </c>
       <c r="G24">
-        <v>0.0007690066635285554</v>
+        <v>0.002543705276749895</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2194504505644943</v>
+        <v>0.2408296235004741</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8362875402411376</v>
+        <v>0.5438622341272321</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.111789724883465</v>
+        <v>1.639654726583274</v>
       </c>
       <c r="C25">
-        <v>0.7363572126559745</v>
+        <v>0.3179365654974617</v>
       </c>
       <c r="D25">
-        <v>0.09361048538609396</v>
+        <v>0.05778801400525424</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.896489848326496</v>
+        <v>5.124788945859109</v>
       </c>
       <c r="G25">
-        <v>0.0007915677617880954</v>
+        <v>0.002555341369296549</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.190062245603734</v>
+        <v>0.2352950158576377</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.671150237727673</v>
+        <v>0.5179068035163965</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_240/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_240/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.531238913048924</v>
+        <v>2.563930969372166</v>
       </c>
       <c r="C2">
-        <v>0.2923111209445892</v>
+        <v>0.6010767301353326</v>
       </c>
       <c r="D2">
-        <v>0.05423374491933686</v>
+        <v>0.07637203157219119</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4.845508045540868</v>
+        <v>6.770457511078689</v>
       </c>
       <c r="G2">
-        <v>0.002564576935133909</v>
+        <v>0.00080838604173044</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2314661405696157</v>
+        <v>0.1699329482398539</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5003697753631613</v>
+        <v>0.557702828301494</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.460752453487544</v>
+        <v>2.208553539251625</v>
       </c>
       <c r="C3">
-        <v>0.2756330872252875</v>
+        <v>0.5136214265061767</v>
       </c>
       <c r="D3">
-        <v>0.05186890427511059</v>
+        <v>0.06520763619939629</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>4.659147865040865</v>
+        <v>6.039452934533472</v>
       </c>
       <c r="G3">
-        <v>0.002571257130335096</v>
+        <v>0.0008200128843087012</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2290218502733552</v>
+        <v>0.1570000575972372</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4894542456953488</v>
+        <v>0.4845673994816551</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.418927386970267</v>
+        <v>1.996550430763875</v>
       </c>
       <c r="C4">
-        <v>0.2657263352744792</v>
+        <v>0.461545913502647</v>
       </c>
       <c r="D4">
-        <v>0.05043720563763543</v>
+        <v>0.05854754191427247</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>4.546096390128184</v>
+        <v>5.603096295260343</v>
       </c>
       <c r="G4">
-        <v>0.002575568007025162</v>
+        <v>0.0008272922112330982</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.227594385278465</v>
+        <v>0.1493451686945164</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4832266224057946</v>
+        <v>0.4411496449734358</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.402246489376921</v>
+        <v>1.911502164816</v>
       </c>
       <c r="C5">
-        <v>0.2617723774270644</v>
+        <v>0.4406728685400481</v>
       </c>
       <c r="D5">
-        <v>0.04985870104599144</v>
+        <v>0.05587456600312635</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4.500364531567527</v>
+        <v>5.427977259922869</v>
       </c>
       <c r="G5">
-        <v>0.002577377537643575</v>
+        <v>0.0008302974941151122</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2270310043539823</v>
+        <v>0.1462893147917441</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4808077124416741</v>
+        <v>0.4237836725273141</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.399498502753232</v>
+        <v>1.897455367823085</v>
       </c>
       <c r="C6">
-        <v>0.261120824081388</v>
+        <v>0.4372263244843282</v>
       </c>
       <c r="D6">
-        <v>0.04976293278848942</v>
+        <v>0.05543298472509406</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.49279094311882</v>
+        <v>5.399049987106395</v>
       </c>
       <c r="G6">
-        <v>0.00257768120465452</v>
+        <v>0.0008307989663712556</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2269385585848909</v>
+        <v>0.1457855056080959</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4804132230009444</v>
+        <v>0.4209185490582854</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.418700955312659</v>
+        <v>1.99539826127625</v>
       </c>
       <c r="C7">
-        <v>0.2656726752521763</v>
+        <v>0.4612630766996801</v>
       </c>
       <c r="D7">
-        <v>0.05042938402936414</v>
+        <v>0.05851133682111254</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>4.545478278234725</v>
+        <v>5.600724193482108</v>
       </c>
       <c r="G7">
-        <v>0.002575592196911746</v>
+        <v>0.0008273325795489636</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2275867132940377</v>
+        <v>0.1493037093290042</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4831935192887471</v>
+        <v>0.4409141751730132</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.506631909905877</v>
+        <v>2.439973022840661</v>
       </c>
       <c r="C8">
-        <v>0.2864908157531261</v>
+        <v>0.5705471014962313</v>
       </c>
       <c r="D8">
-        <v>0.05341401680580304</v>
+        <v>0.07247703453237619</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>4.780960851947469</v>
+        <v>6.515536307901272</v>
       </c>
       <c r="G8">
-        <v>0.002566836969119525</v>
+        <v>0.0008123681260274613</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.230608054482957</v>
+        <v>0.1654090259855181</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4965073353848197</v>
+        <v>0.5321469270282222</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.690724654860333</v>
+        <v>3.372160811601475</v>
       </c>
       <c r="C9">
-        <v>0.3300004243485546</v>
+        <v>0.8008634873254721</v>
       </c>
       <c r="D9">
-        <v>0.05943681045265237</v>
+        <v>0.1018222391143979</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>5.254037188587375</v>
+        <v>8.431297693812809</v>
       </c>
       <c r="G9">
-        <v>0.002551318568239354</v>
+        <v>0.0007839509297715708</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2371206965491623</v>
+        <v>0.1996923708343488</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5264037582998</v>
+        <v>0.7253113349075448</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.833279031059362</v>
+        <v>4.112322895862974</v>
       </c>
       <c r="C10">
-        <v>0.3636616835578366</v>
+        <v>0.9850565642360607</v>
       </c>
       <c r="D10">
-        <v>0.06397779582782448</v>
+        <v>0.1252539897947997</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>5.609070592074772</v>
+        <v>9.950431154188976</v>
       </c>
       <c r="G10">
-        <v>0.00254091020905592</v>
+        <v>0.0007633340063682985</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2422727801936304</v>
+        <v>0.2272352775613484</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5507139058930619</v>
+        <v>0.8799768621589905</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.899760247329311</v>
+        <v>4.466214498451279</v>
       </c>
       <c r="C11">
-        <v>0.3793561631404145</v>
+        <v>1.073577538173112</v>
       </c>
       <c r="D11">
-        <v>0.06607153650551822</v>
+        <v>0.1365090674439529</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>5.77233383201343</v>
+        <v>10.67612569671485</v>
       </c>
       <c r="G11">
-        <v>0.002536387960333281</v>
+        <v>0.0007539272216465616</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2446983468357686</v>
+        <v>0.2404729562200956</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5622908031917859</v>
+        <v>0.954242034875989</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.92517306475861</v>
+        <v>4.603233589478407</v>
       </c>
       <c r="C12">
-        <v>0.3853551785644811</v>
+        <v>1.107933129531716</v>
       </c>
       <c r="D12">
-        <v>0.06686862834422413</v>
+        <v>0.1408763876817716</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>5.834419894059295</v>
+        <v>10.9569789955064</v>
       </c>
       <c r="G12">
-        <v>0.002534705849767961</v>
+        <v>0.0007503523785601733</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2456287710267375</v>
+        <v>0.2456078502608534</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5667498107430617</v>
+        <v>0.9830444552163726</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.919689332688108</v>
+        <v>4.57358056661019</v>
       </c>
       <c r="C13">
-        <v>0.3840606835469771</v>
+        <v>1.100494107026464</v>
       </c>
       <c r="D13">
-        <v>0.06669676854590989</v>
+        <v>0.1399307705478634</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>5.821036757350953</v>
+        <v>10.89620389276297</v>
       </c>
       <c r="G13">
-        <v>0.002535066774849561</v>
+        <v>0.0007511230063711377</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2454278552978408</v>
+        <v>0.2444961644373933</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5657861345498674</v>
+        <v>0.9768089637056292</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.901846190861818</v>
+        <v>4.477423392463152</v>
       </c>
       <c r="C14">
-        <v>0.3798485807418785</v>
+        <v>1.076386265606232</v>
       </c>
       <c r="D14">
-        <v>0.06613702760093076</v>
+        <v>0.1368661334547454</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>5.777436389309742</v>
+        <v>10.69910356734039</v>
       </c>
       <c r="G14">
-        <v>0.002536248964610451</v>
+        <v>0.000753633427292437</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2447746537701789</v>
+        <v>0.2408928304062172</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5626561401144272</v>
+        <v>0.9565972408277119</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.890947815624656</v>
+        <v>4.418933854906129</v>
       </c>
       <c r="C15">
-        <v>0.3772758490956676</v>
+        <v>1.06173334236837</v>
       </c>
       <c r="D15">
-        <v>0.06579472819669263</v>
+        <v>0.1350033119964991</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>5.75076427663322</v>
+        <v>10.57919692619936</v>
       </c>
       <c r="G15">
-        <v>0.002536977038639102</v>
+        <v>0.0007551691927951687</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2443761049442514</v>
+        <v>0.2387022496379103</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5607487245929548</v>
+        <v>0.9443094190185235</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.828967437949018</v>
+        <v>4.089584579292477</v>
       </c>
       <c r="C16">
-        <v>0.3626437761931527</v>
+        <v>0.9793791871626354</v>
       </c>
       <c r="D16">
-        <v>0.06384154657409624</v>
+        <v>0.1245320216234802</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>5.598437088680043</v>
+        <v>9.903788906728636</v>
       </c>
       <c r="G16">
-        <v>0.002541210009088209</v>
+        <v>0.0007639474945728697</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2421159231099566</v>
+        <v>0.2263860579064598</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5499678034071707</v>
+        <v>0.8752116370540364</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.791364765589947</v>
+        <v>3.892291237050642</v>
       </c>
       <c r="C17">
-        <v>0.3537659326930793</v>
+        <v>0.9301694718190276</v>
       </c>
       <c r="D17">
-        <v>0.06265065759259869</v>
+        <v>0.118273605545582</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>5.505445738596109</v>
+        <v>9.499016063182836</v>
       </c>
       <c r="G17">
-        <v>0.002543861100233634</v>
+        <v>0.0007693198577302772</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2407504417807189</v>
+        <v>0.2190250926754871</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5434871634688534</v>
+        <v>0.8338999288179991</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.769890173959595</v>
+        <v>3.78039352755593</v>
       </c>
       <c r="C18">
-        <v>0.3486955104662854</v>
+        <v>0.9022997365521803</v>
       </c>
       <c r="D18">
-        <v>0.06196831488536247</v>
+        <v>0.1147286429112171</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>5.45212436975342</v>
+        <v>9.269386591257899</v>
       </c>
       <c r="G18">
-        <v>0.002545405957478441</v>
+        <v>0.0007724078653839638</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2399727491121126</v>
+        <v>0.214856513389222</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5398083993611209</v>
+        <v>0.810497997451705</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.762645512940253</v>
+        <v>3.742763619465904</v>
       </c>
       <c r="C19">
-        <v>0.34698488617164</v>
+        <v>0.892933925078637</v>
       </c>
       <c r="D19">
-        <v>0.0617377299458326</v>
+        <v>0.1135372404577453</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>5.434098696556475</v>
+        <v>9.192155750601529</v>
       </c>
       <c r="G19">
-        <v>0.002545932464063515</v>
+        <v>0.0007734532999153479</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2397107532202938</v>
+        <v>0.2134557563827002</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5385711846811603</v>
+        <v>0.8026330195113474</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.795351728650928</v>
+        <v>3.913126354303074</v>
       </c>
       <c r="C20">
-        <v>0.3547072741728812</v>
+        <v>0.93536195352155</v>
       </c>
       <c r="D20">
-        <v>0.06277715656759142</v>
+        <v>0.1189340323239918</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>5.515327704641777</v>
+        <v>9.541768081232277</v>
       </c>
       <c r="G20">
-        <v>0.002543576816664795</v>
+        <v>0.000768748228545002</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2408950020539322</v>
+        <v>0.2198017922521558</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5441719912477438</v>
+        <v>0.8382596459621041</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.90708067474975</v>
+        <v>4.505580627909751</v>
       </c>
       <c r="C21">
-        <v>0.3810842537725136</v>
+        <v>1.083443278954945</v>
       </c>
       <c r="D21">
-        <v>0.06630132040594106</v>
+        <v>0.1377632589041724</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>5.790235694641751</v>
+        <v>10.75682298358936</v>
       </c>
       <c r="G21">
-        <v>0.002535900904272725</v>
+        <v>0.0007528964780834486</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2449661903696025</v>
+        <v>0.2419477228541069</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5635734527024994</v>
+        <v>0.9625144033109265</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.981489708886841</v>
+        <v>4.910650759438568</v>
       </c>
       <c r="C22">
-        <v>0.3986491717324725</v>
+        <v>1.18518478280032</v>
       </c>
       <c r="D22">
-        <v>0.0686293639955835</v>
+        <v>0.1506949911625668</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>5.971434399163229</v>
+        <v>11.58684744773132</v>
       </c>
       <c r="G22">
-        <v>0.002531061161089522</v>
+        <v>0.0007424570661030704</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2476964645015727</v>
+        <v>0.2571453840540698</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5766913866328593</v>
+        <v>1.047758024484288</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.941648193109984</v>
+        <v>4.692615001475758</v>
       </c>
       <c r="C23">
-        <v>0.3892442899132789</v>
+        <v>1.130369435110197</v>
       </c>
       <c r="D23">
-        <v>0.06738450486254521</v>
+        <v>0.1437282638109991</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>5.87458212743519</v>
+        <v>11.14015010656465</v>
       </c>
       <c r="G23">
-        <v>0.002533628101875833</v>
+        <v>0.0007480393785836652</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2462328566806562</v>
+        <v>0.2489600778125833</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5696498255602762</v>
+        <v>1.001846983154039</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.793548775332965</v>
+        <v>3.903702074764908</v>
       </c>
       <c r="C24">
-        <v>0.3542815892044757</v>
+        <v>0.9330131306145688</v>
       </c>
       <c r="D24">
-        <v>0.06271995918521611</v>
+        <v>0.1186352894577993</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>5.510859630557491</v>
+        <v>9.52243037872762</v>
       </c>
       <c r="G24">
-        <v>0.002543705276749895</v>
+        <v>0.0007690066634198936</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2408296235004741</v>
+        <v>0.2194504505645511</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5438622341272321</v>
+        <v>0.8362875402411589</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.639654726583274</v>
+        <v>3.111789724883465</v>
       </c>
       <c r="C25">
-        <v>0.3179365654974617</v>
+        <v>0.7363572126555198</v>
       </c>
       <c r="D25">
-        <v>0.05778801400525424</v>
+        <v>0.0936104853862787</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>5.124788945859109</v>
+        <v>7.896489848326524</v>
       </c>
       <c r="G25">
-        <v>0.002555341369296549</v>
+        <v>0.0007915677618958299</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2352950158576377</v>
+        <v>0.1900622456036487</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5179068035163965</v>
+        <v>0.6711502377276659</v>
       </c>
       <c r="N25">
         <v>0</v>
